--- a/Project/PCAOnBonds/美国国债/美国国债历年信息/美国国债2018年收益数据.xlsx
+++ b/Project/PCAOnBonds/美国国债/美国国债历年信息/美国国债2018年收益数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -158,32 +158,55 @@
   </si>
   <si>
     <t>03/29/18</t>
+  </si>
+  <si>
+    <t>04/13/18</t>
+  </si>
+  <si>
+    <t>04/16/18</t>
+  </si>
+  <si>
+    <t>04/17/18</t>
+  </si>
+  <si>
+    <t>04/18/18</t>
+  </si>
+  <si>
+    <t>04/19/18</t>
+  </si>
+  <si>
+    <t>04/20/18</t>
+  </si>
+  <si>
+    <t>04/23/18</t>
+  </si>
+  <si>
+    <t>04/24/18</t>
+  </si>
+  <si>
+    <t>04/25/18</t>
+  </si>
+  <si>
+    <t>04/26/18</t>
+  </si>
+  <si>
+    <t>04/27/18</t>
+  </si>
+  <si>
+    <t>04/30/18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF2A2A2A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2A2A2A"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -193,30 +216,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7D7D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,23 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -552,2600 +543,3211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>36940</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>1.29</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>1.44</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1.61</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1.83</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>1.92</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>2.25</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>2.38</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>2.46</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>2.64</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <v>2.81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>36968</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>1.29</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>1.41</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>1.59</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>1.81</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>1.94</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>2.02</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>2.25</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>2.37</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>2.44</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>2.62</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3">
         <v>2.78</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>36999</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1.28</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>1.41</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>1.6</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>1.82</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>1.96</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>2.27</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>2.38</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>2.46</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>2.62</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>2.79</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>37029</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>1.27</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>1.39</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>1.58</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5">
         <v>1.8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>1.96</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>2.06</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>2.29</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>2.4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>2.64</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>2.81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>37121</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1.3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1.45</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>1.6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>1.79</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>1.96</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>2.29</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>2.41</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>2.4900000000000002</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>2.65</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>2.81</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>37152</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>1.27</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>1.44</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>1.6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>1.78</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7">
         <v>1.98</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>2.09</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>2.33</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <v>2.46</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>2.72</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>2.88</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>37182</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1.31</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>1.42</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>1.59</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>1.78</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>1.98</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>2.08</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>2.3199999999999998</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>2.4700000000000002</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>2.73</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>2.88</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
         <v>37213</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1.32</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>1.43</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>1.58</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9">
         <v>1.77</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9">
         <v>1.98</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>2.09</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>2.3199999999999998</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
         <v>2.46</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>2.54</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>2.72</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9">
         <v>2.91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>37243</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1.31</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>1.43</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>1.59</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>1.78</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>1.99</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>2.12</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>2.35</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>2.48</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>2.71</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>2.85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>1.33</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>1.45</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>1.63</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>1.79</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>2.12</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>2.36</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>2.48</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>2.54</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>2.69</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11">
         <v>2.83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1.31</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>1.44</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>1.63</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>1.79</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>2.15</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>2.39</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>2.5099999999999998</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>2.57</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>2.71</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>2.84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>1.29</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>1.45</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>1.63</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>1.79</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>2.17</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>2.62</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>2.77</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1.28</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>1.44</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>1.62</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>1.79</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>2.06</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14">
         <v>2.57</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>2.64</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>2.78</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>2.91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>1.27</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>1.44</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>1.65</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>1.79</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>2.08</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>2.21</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>2.46</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>2.59</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>2.66</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>2.79</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>2.93</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>1.26</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>1.44</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>1.63</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>1.78</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>2.06</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>2.5499999999999998</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>2.63</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>2.77</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>2.9</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>1.25</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>1.43</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>1.63</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17">
         <v>1.79</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>2.08</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17">
         <v>2.57</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>2.65</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>2.8</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17">
         <v>2.93</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1.23</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>1.42</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>1.64</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>1.8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>2.08</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>2.41</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18">
         <v>2.5499999999999998</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>2.63</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>2.76</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>2.89</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>1.24</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>1.41</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>1.64</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>1.8</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>2.13</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19">
         <v>2.6</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>2.66</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <v>2.79</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19">
         <v>2.91</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1.28</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>1.44</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>1.66</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>1.8</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>2.11</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20">
         <v>2.4900000000000002</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20">
         <v>2.63</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>2.7</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <v>2.82</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <v>2.94</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1.49</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>1.44</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>1.66</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>1.88</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>2.13</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>2.27</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21">
         <v>2.65</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21">
         <v>2.73</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>2.86</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21">
         <v>2.98</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>1.43</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>1.46</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>1.66</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>1.9</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>2.14</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>2.29</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <v>2.52</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22">
         <v>2.66</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22">
         <v>2.72</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <v>2.83</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <v>2.95</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>37274</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>1.41</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>1.48</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>1.64</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>1.89</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>2.16</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
         <v>2.33</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
         <v>2.56</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23">
         <v>2.72</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23">
         <v>2.78</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23">
         <v>2.9</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23">
         <v>3.01</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>37305</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>1.4</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>1.48</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>1.65</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>1.88</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>2.15</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>2.33</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24">
         <v>2.58</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24">
         <v>2.76</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>2.84</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>2.97</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>3.08</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>37394</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>1.4</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>1.51</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>1.67</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25">
         <v>1.85</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>2.08</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>2.25</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25">
         <v>2.5</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25">
         <v>2.68</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25">
         <v>2.77</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
         <v>2.92</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25">
         <v>3.04</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>37425</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>1.48</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>1.52</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>1.69</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>1.87</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>2.1</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>2.52</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>2.7</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>2.79</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
         <v>2.94</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26">
         <v>3.06</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
         <v>37455</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>1.36</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>1.55</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>1.73</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27">
         <v>1.91</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>2.15</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
         <v>2.33</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
         <v>2.57</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27">
         <v>2.75</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27">
         <v>2.84</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27">
         <v>3.01</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27">
         <v>3.12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>37486</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>1.32</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>1.55</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>1.73</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>1.91</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>2.13</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>2.57</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28">
         <v>2.76</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28">
         <v>2.85</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28">
         <v>3.03</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28">
         <v>3.14</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>37517</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>1.31</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>1.55</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>1.73</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29">
         <v>1.89</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>2.0499999999999998</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
         <v>2.52</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29">
         <v>2.72</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29">
         <v>2.83</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
         <v>3.02</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29">
         <v>3.14</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
         <v>37608</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>1.35</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>1.62</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>1.82</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>1.93</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>2.09</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
         <v>2.56</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30">
         <v>2.77</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30">
         <v>2.86</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30">
         <v>3.02</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <v>3.14</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>1.34</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>1.59</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>1.8</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31">
         <v>1.95</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>2.1</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31">
         <v>2.54</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31">
         <v>2.74</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31">
         <v>2.83</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31">
         <v>2.99</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31">
         <v>3.11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>1.32</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>1.58</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>1.81</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>1.98</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>2.17</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>2.4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
         <v>2.65</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32">
         <v>2.84</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>2.91</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
         <v>3.07</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32">
         <v>3.18</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>1.3</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>1.58</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>1.82</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33">
         <v>1.99</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>2.19</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>2.4</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33">
         <v>2.65</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33">
         <v>2.83</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33">
         <v>2.9</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33">
         <v>3.04</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33">
         <v>3.15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>1.35</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>1.62</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>1.83</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34">
         <v>2.21</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>2.38</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34">
         <v>2.63</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34">
         <v>2.81</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34">
         <v>2.87</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34">
         <v>3.02</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <v>3.13</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>1.39</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>1.66</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>1.87</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>2.25</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35">
         <v>2.4</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35">
         <v>2.65</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35">
         <v>2.81</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35">
         <v>2.88</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35">
         <v>3.04</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35">
         <v>3.15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>1.4</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>1.64</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>1.85</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>2.44</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <v>2.69</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36">
         <v>2.86</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>2.94</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36">
         <v>3.11</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36">
         <v>3.22</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>1.34</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37">
         <v>1.63</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37">
         <v>1.84</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37">
         <v>2.02</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>2.25</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37">
         <v>2.42</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37">
         <v>2.66</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37">
         <v>2.84</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37">
         <v>2.92</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37">
         <v>3.09</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37">
         <v>3.21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>1.38</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>1.64</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>1.85</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>2.02</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>2.25</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>2.39</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
         <v>2.62</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38">
         <v>2.79</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38">
         <v>2.88</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38">
         <v>3.04</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38">
         <v>3.16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>1.39</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>1.66</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <v>1.87</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>2.2200000000000002</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39">
         <v>2.37</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39">
         <v>2.6</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39">
         <v>2.77</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39">
         <v>2.86</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39">
         <v>3.03</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39">
         <v>3.15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>1.49</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>1.66</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>1.87</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>2.08</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40">
         <v>2.27</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40">
         <v>2.67</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40">
         <v>2.83</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40">
         <v>2.9</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40">
         <v>3.06</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40">
         <v>3.17</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>1.5</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41">
         <v>1.65</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <v>1.86</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41">
         <v>2.25</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41">
         <v>2.42</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41">
         <v>2.65</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41">
         <v>2.8</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41">
         <v>2.87</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
         <v>3.02</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41">
         <v>3.13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
         <v>37639</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>1.5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>1.63</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>1.85</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42">
         <v>2.2200000000000002</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>2.36</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42">
         <v>2.58</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42">
         <v>2.74</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>2.81</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42">
         <v>2.97</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42">
         <v>3.09</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
         <v>37670</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>1.5</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43">
         <v>1.65</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <v>1.86</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43">
         <v>2.06</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43">
         <v>2.25</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43">
         <v>2.4</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43">
         <v>2.63</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43">
         <v>2.79</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43">
         <v>2.86</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43">
         <v>3.02</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43">
         <v>3.14</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
         <v>37759</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>1.53</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>1.7</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>1.86</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>2.06</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>2.41</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44">
         <v>2.65</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44">
         <v>2.81</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44">
         <v>2.88</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44">
         <v>3.04</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44">
         <v>3.16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
         <v>37790</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>1.56</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45">
         <v>1.68</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45">
         <v>1.87</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45">
         <v>2.06</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45">
         <v>2.25</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45">
         <v>2.42</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45">
         <v>2.65</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45">
         <v>2.81</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45">
         <v>2.88</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45">
         <v>3.03</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45">
         <v>3.14</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
         <v>37820</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>1.57</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>1.68</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>1.87</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46">
         <v>2.25</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>2.42</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46">
         <v>2.65</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46">
         <v>2.81</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46">
         <v>2.89</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46">
         <v>3.04</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46">
         <v>3.15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
         <v>37851</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>1.57</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47">
         <v>1.67</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47">
         <v>1.89</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47">
         <v>2.25</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47">
         <v>2.42</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47">
         <v>2.63</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47">
         <v>2.79</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47">
         <v>2.86</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47">
         <v>3.01</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47">
         <v>3.13</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
         <v>37882</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>1.57</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>1.67</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>1.89</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48">
         <v>2.27</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48">
         <v>2.65</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48">
         <v>2.82</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48">
         <v>2.9</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48">
         <v>3.04</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48">
         <v>3.16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
         <v>37973</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>1.6</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49">
         <v>1.71</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49">
         <v>1.89</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49">
         <v>2.27</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49">
         <v>2.64</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49">
         <v>2.79</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49">
         <v>2.87</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49">
         <v>3</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49">
         <v>3.13</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>1.64</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>1.73</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>1.9</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50">
         <v>2.41</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50">
         <v>2.62</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50">
         <v>2.77</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50">
         <v>2.84</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50">
         <v>2.98</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50">
         <v>3.1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>1.71</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51">
         <v>1.76</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51">
         <v>1.94</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51">
         <v>2.41</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51">
         <v>2.61</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51">
         <v>2.75</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51">
         <v>2.81</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51">
         <v>2.94</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51">
         <v>3.05</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>1.7</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>1.77</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>1.95</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52">
         <v>2.29</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52">
         <v>2.42</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52">
         <v>2.62</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52">
         <v>2.76</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52">
         <v>2.82</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52">
         <v>2.94</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52">
         <v>3.05</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>1.71</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53">
         <v>1.78</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53">
         <v>1.96</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53">
         <v>2.08</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53">
         <v>2.31</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53">
         <v>2.44</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53">
         <v>2.65</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53">
         <v>2.78</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53">
         <v>2.85</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53">
         <v>2.96</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53">
         <v>3.08</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>1.7</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>1.8</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>1.99</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
         <v>2.08</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54">
         <v>2.31</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54">
         <v>2.65</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54">
         <v>2.78</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54">
         <v>2.85</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54">
         <v>2.97</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54">
         <v>3.09</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>1.76</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55">
         <v>1.81</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55">
         <v>1.97</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55">
         <v>2.08</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55">
         <v>2.34</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55">
         <v>2.69</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55">
         <v>2.82</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55">
         <v>2.89</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55">
         <v>3.01</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55">
         <v>3.12</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>1.71</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>1.74</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>1.95</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
         <v>2.06</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56">
         <v>2.31</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56">
         <v>2.46</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56">
         <v>2.69</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56">
         <v>2.82</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56">
         <v>2.89</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56">
         <v>3.01</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56">
         <v>3.12</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>1.67</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57">
         <v>1.72</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57">
         <v>1.95</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57">
         <v>2.29</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
         <v>2.63</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57">
         <v>2.76</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57">
         <v>2.83</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57">
         <v>2.94</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57">
         <v>3.06</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>1.69</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>1.74</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>1.92</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>2.04</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58">
         <v>2.41</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58">
         <v>2.61</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58">
         <v>2.74</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58">
         <v>2.82</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58">
         <v>2.94</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58">
         <v>3.06</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59">
         <v>1.71</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59">
         <v>1.79</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59">
         <v>1.94</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59">
         <v>2.06</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59">
         <v>2.33</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59">
         <v>2.44</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59">
         <v>2.64</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59">
         <v>2.78</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59">
         <v>2.85</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59">
         <v>2.96</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59">
         <v>3.08</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>1.69</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>1.77</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>1.93</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <v>2.1</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60">
         <v>2.39</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60">
         <v>2.58</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60">
         <v>2.7</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60">
         <v>2.78</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60">
         <v>2.9</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60">
         <v>3.03</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>1.65</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61">
         <v>1.73</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61">
         <v>1.95</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61">
         <v>2.12</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61">
         <v>2.41</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61">
         <v>2.59</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61">
         <v>2.72</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61">
         <v>2.77</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61">
         <v>2.89</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61">
         <v>3.01</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>1.63</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>1.73</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>1.93</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>2.09</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62">
         <v>2.27</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62">
         <v>2.39</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62">
         <v>2.56</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62">
         <v>2.68</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62">
         <v>2.74</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62">
         <v>2.85</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62">
         <v>2.97</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
         <v>38035</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>1.68</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63">
         <v>1.77</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63">
         <v>1.92</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63">
         <v>2.08</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63">
         <v>2.25</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63">
         <v>2.37</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63">
         <v>2.5499999999999998</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63">
         <v>2.67</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63">
         <v>2.73</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63">
         <v>2.85</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63">
         <v>2.97</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
         <v>38064</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>1.7</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>1.75</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>1.92</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <v>2.09</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64">
         <v>2.41</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64">
         <v>2.6</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64">
         <v>2.73</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64">
         <v>2.79</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64">
         <v>2.9</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64">
         <v>3.02</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
         <v>38095</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>1.67</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65">
         <v>1.71</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65">
         <v>1.9</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65">
         <v>2.42</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65">
         <v>2.61</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65">
         <v>2.73</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65">
         <v>2.79</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65">
         <v>2.91</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65">
         <v>3.03</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
         <v>38125</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>1.67</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>1.72</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>1.93</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66">
         <v>2.64</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66">
         <v>2.76</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66">
         <v>2.83</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66">
         <v>2.95</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66">
         <v>3.07</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
         <v>38156</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>1.68</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67">
         <v>1.73</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67">
         <v>1.91</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67">
         <v>2.06</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67">
         <v>2.27</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67">
         <v>2.4</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67">
         <v>2.58</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67">
         <v>2.7</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67">
         <v>2.77</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67">
         <v>2.89</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67">
         <v>3.01</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
         <v>38248</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>1.67</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>1.76</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>1.93</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68">
         <v>2.08</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68">
         <v>2.29</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68">
         <v>2.6</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68">
         <v>2.72</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68">
         <v>2.78</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68">
         <v>2.89</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68">
         <v>3.02</v>
       </c>
     </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>38278</v>
+      </c>
+      <c r="B69">
+        <v>1.63</v>
+      </c>
+      <c r="C69">
+        <v>1.74</v>
+      </c>
+      <c r="D69">
+        <v>1.93</v>
+      </c>
+      <c r="E69">
+        <v>2.09</v>
+      </c>
+      <c r="F69">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G69">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H69">
+        <v>2.62</v>
+      </c>
+      <c r="I69">
+        <v>2.74</v>
+      </c>
+      <c r="J69">
+        <v>2.8</v>
+      </c>
+      <c r="K69">
+        <v>2.89</v>
+      </c>
+      <c r="L69">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>38309</v>
+      </c>
+      <c r="B70">
+        <v>1.64</v>
+      </c>
+      <c r="C70">
+        <v>1.73</v>
+      </c>
+      <c r="D70">
+        <v>1.95</v>
+      </c>
+      <c r="E70">
+        <v>2.09</v>
+      </c>
+      <c r="F70">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G70">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H70">
+        <v>2.62</v>
+      </c>
+      <c r="I70">
+        <v>2.72</v>
+      </c>
+      <c r="J70">
+        <v>2.79</v>
+      </c>
+      <c r="K70">
+        <v>2.87</v>
+      </c>
+      <c r="L70">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>38339</v>
+      </c>
+      <c r="B71">
+        <v>1.65</v>
+      </c>
+      <c r="C71">
+        <v>1.75</v>
+      </c>
+      <c r="D71">
+        <v>1.95</v>
+      </c>
+      <c r="E71">
+        <v>2.11</v>
+      </c>
+      <c r="F71">
+        <v>2.34</v>
+      </c>
+      <c r="G71">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H71">
+        <v>2.67</v>
+      </c>
+      <c r="I71">
+        <v>2.78</v>
+      </c>
+      <c r="J71">
+        <v>2.83</v>
+      </c>
+      <c r="K71">
+        <v>2.92</v>
+      </c>
+      <c r="L71">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72">
+        <v>1.64</v>
+      </c>
+      <c r="C72">
+        <v>1.76</v>
+      </c>
+      <c r="D72">
+        <v>1.97</v>
+      </c>
+      <c r="E72">
+        <v>2.12</v>
+      </c>
+      <c r="F72">
+        <v>2.37</v>
+      </c>
+      <c r="G72">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H72">
+        <v>2.67</v>
+      </c>
+      <c r="I72">
+        <v>2.77</v>
+      </c>
+      <c r="J72">
+        <v>2.82</v>
+      </c>
+      <c r="K72">
+        <v>2.91</v>
+      </c>
+      <c r="L72">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73">
+        <v>1.64</v>
+      </c>
+      <c r="C73">
+        <v>1.79</v>
+      </c>
+      <c r="D73">
+        <v>1.98</v>
+      </c>
+      <c r="E73">
+        <v>2.12</v>
+      </c>
+      <c r="F73">
+        <v>2.39</v>
+      </c>
+      <c r="G73">
+        <v>2.52</v>
+      </c>
+      <c r="H73">
+        <v>2.69</v>
+      </c>
+      <c r="I73">
+        <v>2.78</v>
+      </c>
+      <c r="J73">
+        <v>2.83</v>
+      </c>
+      <c r="K73">
+        <v>2.91</v>
+      </c>
+      <c r="L73">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74">
+        <v>1.68</v>
+      </c>
+      <c r="C74">
+        <v>1.8</v>
+      </c>
+      <c r="D74">
+        <v>2.02</v>
+      </c>
+      <c r="E74">
+        <v>2.16</v>
+      </c>
+      <c r="F74">
+        <v>2.41</v>
+      </c>
+      <c r="G74">
+        <v>2.52</v>
+      </c>
+      <c r="H74">
+        <v>2.68</v>
+      </c>
+      <c r="I74">
+        <v>2.77</v>
+      </c>
+      <c r="J74">
+        <v>2.82</v>
+      </c>
+      <c r="K74">
+        <v>2.89</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75">
+        <v>1.67</v>
+      </c>
+      <c r="C75">
+        <v>1.81</v>
+      </c>
+      <c r="D75">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E75">
+        <v>2.17</v>
+      </c>
+      <c r="F75">
+        <v>2.42</v>
+      </c>
+      <c r="G75">
+        <v>2.57</v>
+      </c>
+      <c r="H75">
+        <v>2.73</v>
+      </c>
+      <c r="I75">
+        <v>2.83</v>
+      </c>
+      <c r="J75">
+        <v>2.87</v>
+      </c>
+      <c r="K75">
+        <v>2.95</v>
+      </c>
+      <c r="L75">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76">
+        <v>1.67</v>
+      </c>
+      <c r="C76">
+        <v>1.82</v>
+      </c>
+      <c r="D76">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E76">
+        <v>2.21</v>
+      </c>
+      <c r="F76">
+        <v>2.44</v>
+      </c>
+      <c r="G76">
+        <v>2.58</v>
+      </c>
+      <c r="H76">
+        <v>2.77</v>
+      </c>
+      <c r="I76">
+        <v>2.87</v>
+      </c>
+      <c r="J76">
+        <v>2.92</v>
+      </c>
+      <c r="K76">
+        <v>3.01</v>
+      </c>
+      <c r="L76">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77">
+        <v>1.65</v>
+      </c>
+      <c r="C77">
+        <v>1.81</v>
+      </c>
+      <c r="D77">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E77">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F77">
+        <v>2.46</v>
+      </c>
+      <c r="G77">
+        <v>2.62</v>
+      </c>
+      <c r="H77">
+        <v>2.8</v>
+      </c>
+      <c r="I77">
+        <v>2.91</v>
+      </c>
+      <c r="J77">
+        <v>2.96</v>
+      </c>
+      <c r="K77">
+        <v>3.04</v>
+      </c>
+      <c r="L77">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78">
+        <v>1.69</v>
+      </c>
+      <c r="C78">
+        <v>1.87</v>
+      </c>
+      <c r="D78">
+        <v>2.04</v>
+      </c>
+      <c r="E78">
+        <v>2.25</v>
+      </c>
+      <c r="F78">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G78">
+        <v>2.64</v>
+      </c>
+      <c r="H78">
+        <v>2.83</v>
+      </c>
+      <c r="I78">
+        <v>2.94</v>
+      </c>
+      <c r="J78">
+        <v>2.98</v>
+      </c>
+      <c r="K78">
+        <v>3.05</v>
+      </c>
+      <c r="L78">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79">
+        <v>1.7</v>
+      </c>
+      <c r="C79">
+        <v>1.87</v>
+      </c>
+      <c r="D79">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E79">
+        <v>2.25</v>
+      </c>
+      <c r="F79">
+        <v>2.48</v>
+      </c>
+      <c r="G79">
+        <v>2.63</v>
+      </c>
+      <c r="H79">
+        <v>2.83</v>
+      </c>
+      <c r="I79">
+        <v>2.95</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>3.08</v>
+      </c>
+      <c r="L79">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80">
+        <v>1.65</v>
+      </c>
+      <c r="C80">
+        <v>1.85</v>
+      </c>
+      <c r="D80">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E80">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F80">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G80">
+        <v>2.64</v>
+      </c>
+      <c r="H80">
+        <v>2.84</v>
+      </c>
+      <c r="I80">
+        <v>2.97</v>
+      </c>
+      <c r="J80">
+        <v>3.03</v>
+      </c>
+      <c r="K80">
+        <v>3.12</v>
+      </c>
+      <c r="L80">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81">
+        <v>1.62</v>
+      </c>
+      <c r="C81">
+        <v>1.82</v>
+      </c>
+      <c r="D81">
+        <v>2.02</v>
+      </c>
+      <c r="E81">
+        <v>2.25</v>
+      </c>
+      <c r="F81">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G81">
+        <v>2.63</v>
+      </c>
+      <c r="H81">
+        <v>2.82</v>
+      </c>
+      <c r="I81">
+        <v>2.95</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>3.08</v>
+      </c>
+      <c r="L81">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82">
+        <v>1.62</v>
+      </c>
+      <c r="C82">
+        <v>1.82</v>
+      </c>
+      <c r="D82">
+        <v>2.02</v>
+      </c>
+      <c r="E82">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F82">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G82">
+        <v>2.62</v>
+      </c>
+      <c r="H82">
+        <v>2.8</v>
+      </c>
+      <c r="I82">
+        <v>2.92</v>
+      </c>
+      <c r="J82">
+        <v>2.96</v>
+      </c>
+      <c r="K82">
+        <v>3.03</v>
+      </c>
+      <c r="L82">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83">
+        <v>1.65</v>
+      </c>
+      <c r="C83">
+        <v>1.87</v>
+      </c>
+      <c r="D83">
+        <v>2.04</v>
+      </c>
+      <c r="E83">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F83">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G83">
+        <v>2.62</v>
+      </c>
+      <c r="H83">
+        <v>2.79</v>
+      </c>
+      <c r="I83">
+        <v>2.91</v>
+      </c>
+      <c r="J83">
+        <v>2.95</v>
+      </c>
+      <c r="K83">
+        <v>3.01</v>
+      </c>
+      <c r="L83">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>38370</v>
+      </c>
+      <c r="B84">
+        <v>1.68</v>
+      </c>
+      <c r="C84">
+        <v>1.85</v>
+      </c>
+      <c r="D84">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E84">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F84">
+        <v>2.5</v>
+      </c>
+      <c r="G84">
+        <v>2.66</v>
+      </c>
+      <c r="H84">
+        <v>2.82</v>
+      </c>
+      <c r="I84">
+        <v>2.93</v>
+      </c>
+      <c r="J84">
+        <v>2.97</v>
+      </c>
+      <c r="K84">
+        <v>3.03</v>
+      </c>
+      <c r="L84">
+        <v>3.13</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
